--- a/biology/Zoologie/James_Ray_Dixon/James_Ray_Dixon.xlsx
+++ b/biology/Zoologie/James_Ray_Dixon/James_Ray_Dixon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Ray Dixon est un herpétologiste américain né le 1er août 1928 à Houston, au Texas et décédé le 10 janvier 2015[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Ray Dixon est un herpétologiste américain né le 1er août 1928 à Houston, au Texas et décédé le 10 janvier 2015.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dixon a fait ses études à l'université de Brownwood (Texas), avant d'obtenir un doctorat à l'université A&amp;M du Texas.
 Dixon travaille comme conservateur des reptiles à l'institution des reptiles Ross Allen de 1954 à 1955, puis comme professeur associé à l'école de médecine vétérinaire de l'université A&amp;M de 1959 à 1961. De 1961 à 1965, il est professeur associé du département de la faune sauvage de l'université d'État du Nouveau-Mexique et est consultant auprès du département de la chasse et de la pêche auprès de l'État. De 1965 à 1967, il est conservateur de l'herpétologie à la division des sciences de la vie du Muséum du Comté de Los Angeles en Californie. En 1971, il revient au Texas où il devient professeur de l'université A&amp;M, enseignant les sciences relatives à la chasse et de la faune sauvage. Il publie le premier guide de terre du Texas, intitulé Amphibians and Reptiles of Texas en 1987.
